--- a/biology/Médecine/Marie_Bashir/Marie_Bashir.xlsx
+++ b/biology/Médecine/Marie_Bashir/Marie_Bashir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Roslyn Bashir, Lady Shehadie (née le 1er décembre 1930 à Narrandera), est une psychiatre et femme d'État australienne. Elle est gouverneur de Nouvelle-Galles du Sud de 2001 à 2014 et chancelière de l'université de Sydney de 2007 à 2012. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est née à Narrandera dans la Riverina en Nouvelle-Galles du Sud, de parents libanais. Elle fréquenta la Narrandera Public School puis la Sydney Girls High School (en). Elle fit ensuite ses études de médecine à l'université de Sydney et obtint son diplôme en 1956. 
 Marie Bashir enseigna ensuite à l'université de Sydney et à l'université de Nouvelle-Galles du Sud en travaillant dans les services de pédiatrie et de santé mentale ainsi que de santé indigène. Elle devint professeur de psychiatrie à l'université de Sydney en 1993 puis directrice des services de santé mentale de Sydney (1994) enfin Senior Consultant dans les services de médecine aborigène de Redfern (en 1996) et de Kempsey.
@@ -552,7 +566,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
